--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>土地坐落</t>
   </si>
@@ -176,7 +176,19 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>聯華生技</t>
+  </si>
+  <si>
+    <t>2012-03-28</t>
   </si>
 </sst>
 </file>
@@ -969,13 +981,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -994,13 +1006,22 @@
       <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1016,6 +1037,15 @@
       </c>
       <c r="G2" s="2">
         <v>500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>土地坐落</t>
   </si>
@@ -176,6 +176,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t>聯華生技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-28</t>
@@ -981,13 +987,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1015,13 +1021,16 @@
       <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1039,12 +1048,15 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>645</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>土地坐落</t>
   </si>
@@ -179,6 +179,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -188,13 +191,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>聯華生技</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-28</t>
+  </si>
+  <si>
+    <t>tmp38461</t>
   </si>
 </sst>
 </file>
@@ -987,13 +1002,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1024,13 +1039,22 @@
       <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1048,16 +1072,25 @@
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>645</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,9 +18,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市鹽水區岸南段10330000地號</t>
+  </si>
+  <si>
+    <t>臺南市新營區王公廟段03600021地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>96分之1</t>
+  </si>
+  <si>
+    <t>陳唐山</t>
+  </si>
+  <si>
+    <t>約84年</t>
+  </si>
+  <si>
+    <t>90年</t>
+  </si>
+  <si>
+    <t>(祖產）</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-28</t>
+  </si>
+  <si>
+    <t>tmp38461</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,46 +125,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺南市鹽水區岸南段1033-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市新營區王公廟段 0360-0021 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>96分之1</t>
-  </si>
-  <si>
-    <t>陳唐山</t>
-  </si>
-  <si>
-    <t>約84年</t>
-  </si>
-  <si>
-    <t>90年</t>
-  </si>
-  <si>
-    <t>(祖產）</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺南市鹽水區岸南段00114-000 建號</t>
+    <t>臺南市鹽水區岸南段00114000建號</t>
   </si>
   <si>
     <t>臺南市新營區中正路</t>
   </si>
   <si>
-    <t>7914 Viola St. Springfield, VA USA</t>
+    <t>7914ViolaSt.SpringfieldVAUSA</t>
   </si>
   <si>
     <t>新北市新店區民權路</t>
@@ -98,10 +149,10 @@
     <t>96年</t>
   </si>
   <si>
-    <t>70，000(取得價 額為美元）</t>
-  </si>
-  <si>
-    <t>19,000，000(車 位）</t>
+    <t>70000(取得價額為美元）</t>
+  </si>
+  <si>
+    <t>19000000(車位）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -113,7 +164,7 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>Lexus (99 年)</t>
+    <t>Lexus(99年)</t>
   </si>
   <si>
     <t>6cylinder</t>
@@ -140,10 +191,10 @@
     <t>臺灣土地銀行新營分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司新 營分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行新店分 行</t>
+    <t>中華郵政股份有限公司新營分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行新店分行</t>
   </si>
   <si>
     <t>聯邦商業銀行新店分行</t>
@@ -158,12 +209,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -176,40 +221,10 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>聯華生技</t>
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-28</t>
-  </si>
-  <si>
-    <t>tmp38461</t>
   </si>
 </sst>
 </file>
@@ -568,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,57 +611,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>645</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2725</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>4000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>645</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -664,25 +742,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -690,25 +768,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -716,22 +794,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="2">
         <v>4000000</v>
@@ -742,25 +820,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>809</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -768,25 +846,25 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2">
         <v>247</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -804,22 +882,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -827,22 +905,22 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -860,19 +938,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -880,16 +958,16 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>7969821</v>
@@ -900,16 +978,16 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
         <v>3200000</v>
@@ -920,16 +998,16 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>854898</v>
@@ -940,16 +1018,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>795937</v>
@@ -960,16 +1038,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
         <v>208030</v>
@@ -980,16 +1058,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
         <v>260066</v>
@@ -1010,43 +1088,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1054,10 +1132,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>50000</v>
@@ -1066,28 +1144,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>645</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>59</v>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -62,72 +62,54 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺南市鹽水區岸南段10330000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺南市新營區王公廟段03600021地號</t>
   </si>
   <si>
+    <t>96分之1</t>
+  </si>
+  <si>
+    <t>陳唐山</t>
+  </si>
+  <si>
+    <t>90年</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-28</t>
+  </si>
+  <si>
+    <t>tmp38461</t>
+  </si>
+  <si>
+    <t>臺南市鹽水區岸南段00114000建號</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
-    <t>96分之1</t>
-  </si>
-  <si>
-    <t>陳唐山</t>
-  </si>
-  <si>
     <t>約84年</t>
   </si>
   <si>
-    <t>90年</t>
-  </si>
-  <si>
     <t>(祖產）</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-28</t>
-  </si>
-  <si>
-    <t>tmp38461</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺南市鹽水區岸南段00114000建號</t>
-  </si>
-  <si>
     <t>臺南市新營區中正路</t>
   </si>
   <si>
@@ -155,15 +137,6 @@
     <t>19000000(車位）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>Lexus(99年)</t>
   </si>
   <si>
@@ -173,21 +146,15 @@
     <t>88年</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行新營分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣土地銀行新營分行</t>
   </si>
   <si>
@@ -200,15 +167,9 @@
     <t>聯邦商業銀行新店分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -216,15 +177,6 @@
   </si>
   <si>
     <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>聯華生技</t>
-  </si>
-  <si>
-    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -583,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,19 +584,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1251</v>
+        <v>2725</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -653,19 +611,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -674,57 +632,16 @@
         <v>645</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2725</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>645</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.0104166666666667</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>28.3854166666667</v>
       </c>
     </row>
   </sheetData>
@@ -734,7 +651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,39 +659,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1">
+        <v>161</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -783,88 +700,62 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4000000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>121</v>
+        <v>809</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4000000</v>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>809</v>
+        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="2">
-        <v>247</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -874,53 +765,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +798,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,138 +806,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>7969821</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>7969821</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>3200000</v>
+        <v>854898</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>854898</v>
+        <v>795937</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
-        <v>795937</v>
+        <v>208030</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
-        <v>208030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>52</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2">
         <v>260066</v>
       </c>
     </row>
@@ -1080,13 +928,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="B1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="2:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,16 +942,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1125,50 +973,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2">
-        <v>500000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2">
-        <v>645</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -68,21 +68,36 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市鹽水區岸南段10330000地號</t>
+  </si>
+  <si>
     <t>臺南市新營區王公廟段03600021地號</t>
   </si>
   <si>
+    <t>4分之1</t>
+  </si>
+  <si>
     <t>96分之1</t>
   </si>
   <si>
     <t>陳唐山</t>
   </si>
   <si>
+    <t>約84年</t>
+  </si>
+  <si>
     <t>90年</t>
   </si>
   <si>
+    <t>(祖產）</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
     <t>land</t>
   </si>
   <si>
@@ -98,18 +113,6 @@
     <t>臺南市鹽水區岸南段00114000建號</t>
   </si>
   <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>約84年</t>
-  </si>
-  <si>
-    <t>(祖產）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>臺南市新營區中正路</t>
   </si>
   <si>
@@ -177,6 +180,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>聯華生技</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -535,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -593,54 +602,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2725</v>
+        <v>1251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4000000</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>645</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>312.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2725</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2">
+      <c r="H3" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>645</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.0104166666666667</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>28.3854166666667</v>
       </c>
     </row>
@@ -651,111 +713,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1">
-        <v>161</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>645</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="2">
-        <v>809</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>645</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="2">
-        <v>247</v>
+        <v>809</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>645</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2">
+        <v>247</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>645</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -765,30 +988,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,16 +1052,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1">
         <v>7969821</v>
@@ -823,101 +1069,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>3200000</v>
+        <v>7969821</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>854898</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>795937</v>
+        <v>854898</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>208030</v>
+        <v>795937</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2">
+        <v>208030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
         <v>260066</v>
       </c>
     </row>
@@ -928,13 +1194,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,13 +1208,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -973,6 +1239,50 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>645</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -140,10 +140,10 @@
     <t>19000000(車位）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Lexus(99年)</t>
-  </si>
-  <si>
-    <t>6cylinder</t>
   </si>
   <si>
     <t>88年</t>
@@ -988,41 +988,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
@@ -1035,6 +1056,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>645</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -140,6 +140,9 @@
     <t>19000000(車位）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>88年</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行新營分行</t>
@@ -795,7 +801,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -848,7 +854,7 @@
         <v>4000000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -901,7 +907,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -954,7 +960,7 @@
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>27</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1040,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -1049,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1058,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1094,13 +1100,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1114,13 +1120,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1134,13 +1140,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1154,13 +1160,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1174,13 +1180,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1194,13 +1200,13 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
@@ -1214,13 +1220,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
@@ -1250,13 +1256,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1288,7 +1294,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1300,13 +1306,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>

--- a/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
+++ b/legislator/property/output/normal/陳唐山_2012-03-28_財產申報表_tmp38461.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -155,37 +155,46 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行新營分行</t>
   </si>
   <si>
+    <t>臺灣土地銀行新營分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司新營分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行新店分行</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行新店分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣土地銀行新營分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司新營分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行新店分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行新店分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>聯華生技</t>
@@ -1092,13 +1101,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1109,24 +1118,45 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
-        <v>7969821</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1134,19 +1164,40 @@
       <c r="F2" s="2">
         <v>7969821</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>645</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1154,19 +1205,40 @@
       <c r="F3" s="2">
         <v>3200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>645</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1174,19 +1246,40 @@
       <c r="F4" s="2">
         <v>854898</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>645</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1194,19 +1287,40 @@
       <c r="F5" s="2">
         <v>795937</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>645</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
@@ -1214,25 +1328,67 @@
       <c r="F6" s="2">
         <v>208030</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>645</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>260066</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>645</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1256,13 +1412,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1294,7 +1450,7 @@
         <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1306,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2">
         <v>500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
